--- a/testdata/configuration.xlsx
+++ b/testdata/configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
